--- a/resource/dateInput_generated_testCases_prepared.xlsx
+++ b/resource/dateInput_generated_testCases_prepared.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Emre\Documents\GitHub\SoftwareTesting\resource\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pelin Şenkula\Documents\GitHub\SoftwareTesting\resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12840" windowHeight="2610" tabRatio="850" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12840" windowHeight="2610" tabRatio="850" firstSheet="4" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1219" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1219" uniqueCount="430">
   <si>
     <t>R1</t>
   </si>
@@ -433,15 +433,9 @@
     <t>RT16</t>
   </si>
   <si>
-    <t>6/16/1811</t>
-  </si>
-  <si>
     <t>RT17</t>
   </si>
   <si>
-    <t>6/16/2013</t>
-  </si>
-  <si>
     <t>SET1</t>
   </si>
   <si>
@@ -1300,9 +1294,6 @@
     <t>WCT125</t>
   </si>
   <si>
-    <t>1/1/2013</t>
-  </si>
-  <si>
     <t>TR1</t>
   </si>
   <si>
@@ -1330,13 +1321,7 @@
     <t>TR9</t>
   </si>
   <si>
-    <t>4/16/1811</t>
-  </si>
-  <si>
     <t>TR10</t>
-  </si>
-  <si>
-    <t>4/16/2013</t>
   </si>
 </sst>
 </file>
@@ -2431,7 +2416,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
@@ -2750,7 +2735,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E20"/>
+      <selection activeCell="E18" sqref="E18:E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3105,13 +3090,13 @@
         <v>74</v>
       </c>
       <c r="E19" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="G19"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B20" t="s">
         <v>60</v>
@@ -3123,7 +3108,7 @@
         <v>75</v>
       </c>
       <c r="E20" t="s">
-        <v>135</v>
+        <v>104</v>
       </c>
       <c r="G20"/>
     </row>
@@ -3213,7 +3198,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B4" t="s">
         <v>57</v>
@@ -3222,16 +3207,16 @@
         <v>84</v>
       </c>
       <c r="D4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G4"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B5" t="s">
         <v>57</v>
@@ -3240,16 +3225,16 @@
         <v>84</v>
       </c>
       <c r="D5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G5"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B6" t="s">
         <v>57</v>
@@ -3258,70 +3243,70 @@
         <v>84</v>
       </c>
       <c r="D6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G6"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B7" t="s">
         <v>57</v>
       </c>
       <c r="C7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G7"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B8" t="s">
         <v>57</v>
       </c>
       <c r="C8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E8" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G8"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B9" t="s">
         <v>57</v>
       </c>
       <c r="C9" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D9" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E9" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G9"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B10" t="s">
         <v>57</v>
@@ -3330,16 +3315,16 @@
         <v>100</v>
       </c>
       <c r="D10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E10" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G10"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B11" t="s">
         <v>57</v>
@@ -3348,16 +3333,16 @@
         <v>100</v>
       </c>
       <c r="D11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E11" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G11"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B12" t="s">
         <v>57</v>
@@ -3366,16 +3351,16 @@
         <v>100</v>
       </c>
       <c r="D12" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E12" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G12"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B13" t="s">
         <v>57</v>
@@ -3384,7 +3369,7 @@
         <v>103</v>
       </c>
       <c r="D13" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E13" t="s">
         <v>104</v>
@@ -3393,7 +3378,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B14" t="s">
         <v>57</v>
@@ -3402,7 +3387,7 @@
         <v>103</v>
       </c>
       <c r="D14" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E14" t="s">
         <v>104</v>
@@ -3411,7 +3396,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B15" t="s">
         <v>57</v>
@@ -3420,7 +3405,7 @@
         <v>103</v>
       </c>
       <c r="D15" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E15" t="s">
         <v>104</v>
@@ -3429,7 +3414,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B16" t="s">
         <v>58</v>
@@ -3438,16 +3423,16 @@
         <v>84</v>
       </c>
       <c r="D16" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G16"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B17" t="s">
         <v>58</v>
@@ -3456,16 +3441,16 @@
         <v>84</v>
       </c>
       <c r="D17" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E17" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G17"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B18" t="s">
         <v>58</v>
@@ -3474,70 +3459,70 @@
         <v>84</v>
       </c>
       <c r="D18" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E18" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G18"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B19" t="s">
         <v>58</v>
       </c>
       <c r="C19" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D19" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E19" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G19"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B20" t="s">
         <v>58</v>
       </c>
       <c r="C20" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D20" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E20" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G20"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B21" t="s">
         <v>58</v>
       </c>
       <c r="C21" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D21" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E21" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G21"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B22" t="s">
         <v>58</v>
@@ -3546,16 +3531,16 @@
         <v>100</v>
       </c>
       <c r="D22" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E22" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G22"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B23" t="s">
         <v>58</v>
@@ -3564,16 +3549,16 @@
         <v>100</v>
       </c>
       <c r="D23" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E23" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G23"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B24" t="s">
         <v>58</v>
@@ -3582,16 +3567,16 @@
         <v>100</v>
       </c>
       <c r="D24" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E24" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G24"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B25" t="s">
         <v>58</v>
@@ -3600,16 +3585,16 @@
         <v>103</v>
       </c>
       <c r="D25" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E25" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G25"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B26" t="s">
         <v>58</v>
@@ -3618,16 +3603,16 @@
         <v>103</v>
       </c>
       <c r="D26" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E26" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G26"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B27" t="s">
         <v>58</v>
@@ -3636,16 +3621,16 @@
         <v>103</v>
       </c>
       <c r="D27" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E27" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G27"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B28" t="s">
         <v>59</v>
@@ -3654,16 +3639,16 @@
         <v>84</v>
       </c>
       <c r="D28" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E28" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G28"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B29" t="s">
         <v>59</v>
@@ -3672,16 +3657,16 @@
         <v>84</v>
       </c>
       <c r="D29" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E29" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G29"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B30" t="s">
         <v>59</v>
@@ -3690,25 +3675,25 @@
         <v>84</v>
       </c>
       <c r="D30" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E30" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G30"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B31" t="s">
         <v>59</v>
       </c>
       <c r="C31" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D31" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E31" t="s">
         <v>104</v>
@@ -3717,34 +3702,34 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B32" t="s">
         <v>59</v>
       </c>
       <c r="C32" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D32" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E32" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G32"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B33" t="s">
         <v>59</v>
       </c>
       <c r="C33" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D33" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E33" t="s">
         <v>104</v>
@@ -3753,7 +3738,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
@@ -3762,7 +3747,7 @@
         <v>100</v>
       </c>
       <c r="D34" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E34" t="s">
         <v>104</v>
@@ -3771,7 +3756,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B35" t="s">
         <v>59</v>
@@ -3780,7 +3765,7 @@
         <v>100</v>
       </c>
       <c r="D35" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E35" t="s">
         <v>104</v>
@@ -3789,7 +3774,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B36" t="s">
         <v>59</v>
@@ -3798,7 +3783,7 @@
         <v>100</v>
       </c>
       <c r="D36" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E36" t="s">
         <v>104</v>
@@ -3807,7 +3792,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B37" t="s">
         <v>59</v>
@@ -3816,7 +3801,7 @@
         <v>103</v>
       </c>
       <c r="D37" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E37" t="s">
         <v>104</v>
@@ -3825,7 +3810,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B38" t="s">
         <v>59</v>
@@ -3834,7 +3819,7 @@
         <v>103</v>
       </c>
       <c r="D38" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E38" t="s">
         <v>104</v>
@@ -3843,7 +3828,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B39" t="s">
         <v>59</v>
@@ -3852,7 +3837,7 @@
         <v>103</v>
       </c>
       <c r="D39" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E39" t="s">
         <v>104</v>
@@ -3945,7 +3930,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B4" t="s">
         <v>57</v>
@@ -3954,34 +3939,34 @@
         <v>84</v>
       </c>
       <c r="D4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G4"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B5" t="s">
         <v>58</v>
       </c>
       <c r="C5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G5"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B6" t="s">
         <v>59</v>
@@ -3990,7 +3975,7 @@
         <v>100</v>
       </c>
       <c r="D6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E6" t="s">
         <v>104</v>
@@ -3999,7 +3984,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B7" t="s">
         <v>57</v>
@@ -4008,7 +3993,7 @@
         <v>103</v>
       </c>
       <c r="D7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E7" t="s">
         <v>104</v>
@@ -4027,8 +4012,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G129"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E128"/>
+    <sheetView topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="E128" sqref="E128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4101,7 +4086,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B4" t="s">
         <v>58</v>
@@ -4113,13 +4098,13 @@
         <v>106</v>
       </c>
       <c r="E4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G4"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B5" t="s">
         <v>58</v>
@@ -4131,13 +4116,13 @@
         <v>109</v>
       </c>
       <c r="E5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G5"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B6" t="s">
         <v>58</v>
@@ -4149,13 +4134,13 @@
         <v>85</v>
       </c>
       <c r="E6" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G6"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B7" t="s">
         <v>58</v>
@@ -4167,13 +4152,13 @@
         <v>112</v>
       </c>
       <c r="E7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G7"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B8" t="s">
         <v>58</v>
@@ -4185,13 +4170,13 @@
         <v>115</v>
       </c>
       <c r="E8" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G8"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B9" t="s">
         <v>58</v>
@@ -4203,13 +4188,13 @@
         <v>106</v>
       </c>
       <c r="E9" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G9"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B10" t="s">
         <v>58</v>
@@ -4221,13 +4206,13 @@
         <v>109</v>
       </c>
       <c r="E10" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G10"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B11" t="s">
         <v>58</v>
@@ -4239,13 +4224,13 @@
         <v>85</v>
       </c>
       <c r="E11" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G11"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B12" t="s">
         <v>58</v>
@@ -4257,13 +4242,13 @@
         <v>112</v>
       </c>
       <c r="E12" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G12"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B13" t="s">
         <v>58</v>
@@ -4275,13 +4260,13 @@
         <v>115</v>
       </c>
       <c r="E13" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G13"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B14" t="s">
         <v>58</v>
@@ -4293,13 +4278,13 @@
         <v>106</v>
       </c>
       <c r="E14" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G14"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B15" t="s">
         <v>58</v>
@@ -4311,13 +4296,13 @@
         <v>109</v>
       </c>
       <c r="E15" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G15"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B16" t="s">
         <v>58</v>
@@ -4335,7 +4320,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B17" t="s">
         <v>58</v>
@@ -4347,13 +4332,13 @@
         <v>112</v>
       </c>
       <c r="E17" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G17"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B18" t="s">
         <v>58</v>
@@ -4365,13 +4350,13 @@
         <v>115</v>
       </c>
       <c r="E18" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G18"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B19" t="s">
         <v>58</v>
@@ -4383,13 +4368,13 @@
         <v>106</v>
       </c>
       <c r="E19" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G19"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B20" t="s">
         <v>58</v>
@@ -4401,13 +4386,13 @@
         <v>109</v>
       </c>
       <c r="E20" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G20"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B21" t="s">
         <v>58</v>
@@ -4419,13 +4404,13 @@
         <v>85</v>
       </c>
       <c r="E21" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="G21"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B22" t="s">
         <v>58</v>
@@ -4437,13 +4422,13 @@
         <v>112</v>
       </c>
       <c r="E22" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G22"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B23" t="s">
         <v>58</v>
@@ -4455,13 +4440,13 @@
         <v>115</v>
       </c>
       <c r="E23" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G23"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B24" t="s">
         <v>58</v>
@@ -4473,13 +4458,13 @@
         <v>106</v>
       </c>
       <c r="E24" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G24"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B25" t="s">
         <v>58</v>
@@ -4491,13 +4476,13 @@
         <v>109</v>
       </c>
       <c r="E25" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G25"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B26" t="s">
         <v>58</v>
@@ -4509,13 +4494,13 @@
         <v>85</v>
       </c>
       <c r="E26" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G26"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B27" t="s">
         <v>58</v>
@@ -4527,13 +4512,13 @@
         <v>112</v>
       </c>
       <c r="E27" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G27"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B28" t="s">
         <v>58</v>
@@ -4545,13 +4530,13 @@
         <v>115</v>
       </c>
       <c r="E28" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G28"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B29" t="s">
         <v>59</v>
@@ -4563,13 +4548,13 @@
         <v>106</v>
       </c>
       <c r="E29" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G29"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B30" t="s">
         <v>59</v>
@@ -4581,13 +4566,13 @@
         <v>109</v>
       </c>
       <c r="E30" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G30"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B31" t="s">
         <v>59</v>
@@ -4599,13 +4584,13 @@
         <v>85</v>
       </c>
       <c r="E31" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G31"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B32" t="s">
         <v>59</v>
@@ -4617,13 +4602,13 @@
         <v>112</v>
       </c>
       <c r="E32" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G32"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B33" t="s">
         <v>59</v>
@@ -4635,13 +4620,13 @@
         <v>115</v>
       </c>
       <c r="E33" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G33"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
@@ -4653,13 +4638,13 @@
         <v>106</v>
       </c>
       <c r="E34" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="G34"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B35" t="s">
         <v>59</v>
@@ -4671,13 +4656,13 @@
         <v>109</v>
       </c>
       <c r="E35" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G35"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B36" t="s">
         <v>59</v>
@@ -4689,13 +4674,13 @@
         <v>85</v>
       </c>
       <c r="E36" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="G36"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B37" t="s">
         <v>59</v>
@@ -4707,13 +4692,13 @@
         <v>112</v>
       </c>
       <c r="E37" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G37"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B38" t="s">
         <v>59</v>
@@ -4725,13 +4710,13 @@
         <v>115</v>
       </c>
       <c r="E38" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G38"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B39" t="s">
         <v>59</v>
@@ -4743,13 +4728,13 @@
         <v>106</v>
       </c>
       <c r="E39" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G39"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B40" t="s">
         <v>59</v>
@@ -4761,13 +4746,13 @@
         <v>109</v>
       </c>
       <c r="E40" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="G40"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B41" t="s">
         <v>59</v>
@@ -4785,7 +4770,7 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B42" t="s">
         <v>59</v>
@@ -4797,13 +4782,13 @@
         <v>112</v>
       </c>
       <c r="E42" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G42"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B43" t="s">
         <v>59</v>
@@ -4815,13 +4800,13 @@
         <v>115</v>
       </c>
       <c r="E43" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G43"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B44" t="s">
         <v>59</v>
@@ -4839,7 +4824,7 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B45" t="s">
         <v>59</v>
@@ -4857,7 +4842,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B46" t="s">
         <v>59</v>
@@ -4875,7 +4860,7 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B47" t="s">
         <v>59</v>
@@ -4893,7 +4878,7 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B48" t="s">
         <v>59</v>
@@ -4911,7 +4896,7 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B49" t="s">
         <v>59</v>
@@ -4929,7 +4914,7 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B50" t="s">
         <v>59</v>
@@ -4947,7 +4932,7 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B51" t="s">
         <v>59</v>
@@ -4965,7 +4950,7 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B52" t="s">
         <v>59</v>
@@ -4983,7 +4968,7 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B53" t="s">
         <v>59</v>
@@ -5001,7 +4986,7 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B54" t="s">
         <v>60</v>
@@ -5013,13 +4998,13 @@
         <v>106</v>
       </c>
       <c r="E54" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G54"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B55" t="s">
         <v>60</v>
@@ -5031,13 +5016,13 @@
         <v>109</v>
       </c>
       <c r="E55" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G55"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B56" t="s">
         <v>60</v>
@@ -5055,7 +5040,7 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B57" t="s">
         <v>60</v>
@@ -5067,13 +5052,13 @@
         <v>112</v>
       </c>
       <c r="E57" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="G57"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B58" t="s">
         <v>60</v>
@@ -5085,13 +5070,13 @@
         <v>115</v>
       </c>
       <c r="E58" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="G58"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B59" t="s">
         <v>60</v>
@@ -5103,13 +5088,13 @@
         <v>106</v>
       </c>
       <c r="E59" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G59"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B60" t="s">
         <v>60</v>
@@ -5121,13 +5106,13 @@
         <v>109</v>
       </c>
       <c r="E60" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G60"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B61" t="s">
         <v>60</v>
@@ -5145,7 +5130,7 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B62" t="s">
         <v>60</v>
@@ -5157,13 +5142,13 @@
         <v>112</v>
       </c>
       <c r="E62" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G62"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B63" t="s">
         <v>60</v>
@@ -5175,13 +5160,13 @@
         <v>115</v>
       </c>
       <c r="E63" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G63"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B64" t="s">
         <v>60</v>
@@ -5199,7 +5184,7 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B65" t="s">
         <v>60</v>
@@ -5217,7 +5202,7 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B66" t="s">
         <v>60</v>
@@ -5235,7 +5220,7 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B67" t="s">
         <v>60</v>
@@ -5253,7 +5238,7 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B68" t="s">
         <v>60</v>
@@ -5271,7 +5256,7 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B69" t="s">
         <v>60</v>
@@ -5283,13 +5268,13 @@
         <v>106</v>
       </c>
       <c r="E69" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G69"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B70" t="s">
         <v>60</v>
@@ -5301,13 +5286,13 @@
         <v>109</v>
       </c>
       <c r="E70" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="G70"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B71" t="s">
         <v>60</v>
@@ -5325,7 +5310,7 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B72" t="s">
         <v>60</v>
@@ -5337,13 +5322,13 @@
         <v>112</v>
       </c>
       <c r="E72" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G72"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B73" t="s">
         <v>60</v>
@@ -5355,13 +5340,13 @@
         <v>115</v>
       </c>
       <c r="E73" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G73"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B74" t="s">
         <v>60</v>
@@ -5379,7 +5364,7 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B75" t="s">
         <v>60</v>
@@ -5397,7 +5382,7 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B76" t="s">
         <v>60</v>
@@ -5415,7 +5400,7 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B77" t="s">
         <v>60</v>
@@ -5433,7 +5418,7 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B78" t="s">
         <v>60</v>
@@ -5451,7 +5436,7 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B79" t="s">
         <v>61</v>
@@ -5463,13 +5448,13 @@
         <v>106</v>
       </c>
       <c r="E79" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="G79"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B80" t="s">
         <v>61</v>
@@ -5481,13 +5466,13 @@
         <v>109</v>
       </c>
       <c r="E80" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="G80"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B81" t="s">
         <v>61</v>
@@ -5499,13 +5484,13 @@
         <v>85</v>
       </c>
       <c r="E81" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="G81"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B82" t="s">
         <v>61</v>
@@ -5517,13 +5502,13 @@
         <v>112</v>
       </c>
       <c r="E82" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G82"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B83" t="s">
         <v>61</v>
@@ -5535,13 +5520,13 @@
         <v>115</v>
       </c>
       <c r="E83" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="G83"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B84" t="s">
         <v>61</v>
@@ -5553,13 +5538,13 @@
         <v>106</v>
       </c>
       <c r="E84" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="G84"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B85" t="s">
         <v>61</v>
@@ -5571,13 +5556,13 @@
         <v>109</v>
       </c>
       <c r="E85" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="G85"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B86" t="s">
         <v>61</v>
@@ -5589,13 +5574,13 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G86"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B87" t="s">
         <v>61</v>
@@ -5607,13 +5592,13 @@
         <v>112</v>
       </c>
       <c r="E87" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="G87"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B88" t="s">
         <v>61</v>
@@ -5625,13 +5610,13 @@
         <v>115</v>
       </c>
       <c r="E88" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G88"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B89" t="s">
         <v>61</v>
@@ -5643,13 +5628,13 @@
         <v>106</v>
       </c>
       <c r="E89" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="G89"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B90" t="s">
         <v>61</v>
@@ -5661,13 +5646,13 @@
         <v>109</v>
       </c>
       <c r="E90" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="G90"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B91" t="s">
         <v>61</v>
@@ -5685,7 +5670,7 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B92" t="s">
         <v>61</v>
@@ -5697,13 +5682,13 @@
         <v>112</v>
       </c>
       <c r="E92" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G92"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B93" t="s">
         <v>61</v>
@@ -5715,13 +5700,13 @@
         <v>115</v>
       </c>
       <c r="E93" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G93"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B94" t="s">
         <v>61</v>
@@ -5733,13 +5718,13 @@
         <v>106</v>
       </c>
       <c r="E94" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G94"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B95" t="s">
         <v>61</v>
@@ -5751,13 +5736,13 @@
         <v>109</v>
       </c>
       <c r="E95" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G95"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B96" t="s">
         <v>61</v>
@@ -5769,13 +5754,13 @@
         <v>85</v>
       </c>
       <c r="E96" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G96"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B97" t="s">
         <v>61</v>
@@ -5787,13 +5772,13 @@
         <v>112</v>
       </c>
       <c r="E97" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G97"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B98" t="s">
         <v>61</v>
@@ -5805,13 +5790,13 @@
         <v>115</v>
       </c>
       <c r="E98" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G98"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B99" t="s">
         <v>61</v>
@@ -5829,7 +5814,7 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B100" t="s">
         <v>61</v>
@@ -5847,7 +5832,7 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B101" t="s">
         <v>61</v>
@@ -5865,7 +5850,7 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B102" t="s">
         <v>61</v>
@@ -5883,7 +5868,7 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B103" t="s">
         <v>61</v>
@@ -5901,7 +5886,7 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B104" t="s">
         <v>62</v>
@@ -5913,13 +5898,13 @@
         <v>106</v>
       </c>
       <c r="E104" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="G104"/>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B105" t="s">
         <v>62</v>
@@ -5931,13 +5916,13 @@
         <v>109</v>
       </c>
       <c r="E105" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="G105"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B106" t="s">
         <v>62</v>
@@ -5949,13 +5934,13 @@
         <v>85</v>
       </c>
       <c r="E106" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="G106"/>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B107" t="s">
         <v>62</v>
@@ -5967,13 +5952,13 @@
         <v>112</v>
       </c>
       <c r="E107" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="G107"/>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B108" t="s">
         <v>62</v>
@@ -5985,13 +5970,13 @@
         <v>115</v>
       </c>
       <c r="E108" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="G108"/>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B109" t="s">
         <v>62</v>
@@ -6003,13 +5988,13 @@
         <v>106</v>
       </c>
       <c r="E109" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="G109"/>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B110" t="s">
         <v>62</v>
@@ -6021,13 +6006,13 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="G110"/>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B111" t="s">
         <v>62</v>
@@ -6039,13 +6024,13 @@
         <v>85</v>
       </c>
       <c r="E111" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="G111"/>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B112" t="s">
         <v>62</v>
@@ -6057,13 +6042,13 @@
         <v>112</v>
       </c>
       <c r="E112" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="G112"/>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B113" t="s">
         <v>62</v>
@@ -6075,13 +6060,13 @@
         <v>115</v>
       </c>
       <c r="E113" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="G113"/>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B114" t="s">
         <v>62</v>
@@ -6093,13 +6078,13 @@
         <v>106</v>
       </c>
       <c r="E114" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="G114"/>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B115" t="s">
         <v>62</v>
@@ -6111,13 +6096,13 @@
         <v>109</v>
       </c>
       <c r="E115" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="G115"/>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B116" t="s">
         <v>62</v>
@@ -6135,7 +6120,7 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B117" t="s">
         <v>62</v>
@@ -6147,13 +6132,13 @@
         <v>112</v>
       </c>
       <c r="E117" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G117"/>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B118" t="s">
         <v>62</v>
@@ -6165,13 +6150,13 @@
         <v>115</v>
       </c>
       <c r="E118" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G118"/>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B119" t="s">
         <v>62</v>
@@ -6183,13 +6168,13 @@
         <v>106</v>
       </c>
       <c r="E119" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G119"/>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B120" t="s">
         <v>62</v>
@@ -6201,13 +6186,13 @@
         <v>109</v>
       </c>
       <c r="E120" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G120"/>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B121" t="s">
         <v>62</v>
@@ -6219,13 +6204,13 @@
         <v>85</v>
       </c>
       <c r="E121" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G121"/>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B122" t="s">
         <v>62</v>
@@ -6237,13 +6222,13 @@
         <v>112</v>
       </c>
       <c r="E122" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="G122"/>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B123" t="s">
         <v>62</v>
@@ -6255,13 +6240,13 @@
         <v>115</v>
       </c>
       <c r="E123" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G123"/>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B124" t="s">
         <v>62</v>
@@ -6273,13 +6258,13 @@
         <v>106</v>
       </c>
       <c r="E124" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="G124"/>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B125" t="s">
         <v>62</v>
@@ -6291,13 +6276,13 @@
         <v>109</v>
       </c>
       <c r="E125" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G125"/>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B126" t="s">
         <v>62</v>
@@ -6309,13 +6294,13 @@
         <v>85</v>
       </c>
       <c r="E126" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G126"/>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B127" t="s">
         <v>62</v>
@@ -6327,13 +6312,13 @@
         <v>112</v>
       </c>
       <c r="E127" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="G127"/>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B128" t="s">
         <v>62</v>
@@ -6345,7 +6330,7 @@
         <v>115</v>
       </c>
       <c r="E128" t="s">
-        <v>422</v>
+        <v>104</v>
       </c>
       <c r="G128"/>
     </row>
@@ -6361,8 +6346,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4:G13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6435,7 +6420,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B4" t="s">
         <v>57</v>
@@ -6444,34 +6429,34 @@
         <v>84</v>
       </c>
       <c r="D4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G4"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B5" t="s">
         <v>58</v>
       </c>
       <c r="C5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G5"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B6" t="s">
         <v>59</v>
@@ -6480,7 +6465,7 @@
         <v>100</v>
       </c>
       <c r="D6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E6" t="s">
         <v>104</v>
@@ -6489,7 +6474,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B7" t="s">
         <v>57</v>
@@ -6498,7 +6483,7 @@
         <v>103</v>
       </c>
       <c r="D7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E7" t="s">
         <v>104</v>
@@ -6507,7 +6492,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B8" t="s">
         <v>76</v>
@@ -6516,7 +6501,7 @@
         <v>84</v>
       </c>
       <c r="D8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E8" t="s">
         <v>104</v>
@@ -6525,7 +6510,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B9" t="s">
         <v>63</v>
@@ -6534,7 +6519,7 @@
         <v>84</v>
       </c>
       <c r="D9" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E9" t="s">
         <v>104</v>
@@ -6543,7 +6528,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B10" t="s">
         <v>57</v>
@@ -6552,7 +6537,7 @@
         <v>76</v>
       </c>
       <c r="D10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E10" t="s">
         <v>104</v>
@@ -6561,7 +6546,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B11" t="s">
         <v>57</v>
@@ -6570,7 +6555,7 @@
         <v>73</v>
       </c>
       <c r="D11" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E11" t="s">
         <v>104</v>
@@ -6579,7 +6564,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B12" t="s">
         <v>57</v>
@@ -6591,13 +6576,13 @@
         <v>74</v>
       </c>
       <c r="E12" t="s">
-        <v>432</v>
+        <v>104</v>
       </c>
       <c r="G12"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="B13" t="s">
         <v>57</v>
@@ -6609,7 +6594,7 @@
         <v>75</v>
       </c>
       <c r="E13" t="s">
-        <v>434</v>
+        <v>104</v>
       </c>
       <c r="G13"/>
     </row>
